--- a/NetAgent/src/main/resources/RTE Driver Billing Report.xlsx
+++ b/NetAgent/src/main/resources/RTE Driver Billing Report.xlsx
@@ -379,7 +379,7 @@
       </c>
       <c s="4" t="inlineStr" r="I7">
         <is>
-          <t xml:space="preserve">06/07/2022</t>
+          <t xml:space="preserve">06/10/2022</t>
         </is>
       </c>
       <c s="3" t="inlineStr" r="K7">
@@ -389,7 +389,7 @@
       </c>
       <c s="4" t="inlineStr" r="M7">
         <is>
-          <t xml:space="preserve">06/17/2022</t>
+          <t xml:space="preserve">06/20/2022</t>
         </is>
       </c>
     </row>
@@ -495,7 +495,7 @@
   <pageMargins left="0.5" right="0" top="0.25" bottom="0.80625" header="0.25" footer="0.25"/>
   <pageSetup paperSize="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;9 6/17/2022 1:43 AM &amp;C&amp;"Arial,Regular"&amp;9 *Data provided should be considered CONFIDENTIAL and PROPRIETARY* 
+    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;9 6/19/2022 9:46 PM &amp;C&amp;"Arial,Regular"&amp;9 *Data provided should be considered CONFIDENTIAL and PROPRIETARY* 
 &amp;"-,Regular"©2011-2022 MNX Global Logistics. All rights reserved. 
 &amp;"-,Regular"Print User : automation &amp;R&amp;"Arial,Regular"&amp;9Page </oddFooter>
   </headerFooter>

--- a/NetAgent/src/main/resources/RTE Driver Billing Report.xlsx
+++ b/NetAgent/src/main/resources/RTE Driver Billing Report.xlsx
@@ -379,7 +379,7 @@
       </c>
       <c s="4" t="inlineStr" r="I7">
         <is>
-          <t xml:space="preserve">06/10/2022</t>
+          <t xml:space="preserve">06/11/2022</t>
         </is>
       </c>
       <c s="3" t="inlineStr" r="K7">
@@ -389,7 +389,7 @@
       </c>
       <c s="4" t="inlineStr" r="M7">
         <is>
-          <t xml:space="preserve">06/20/2022</t>
+          <t xml:space="preserve">06/21/2022</t>
         </is>
       </c>
     </row>
@@ -495,9 +495,9 @@
   <pageMargins left="0.5" right="0" top="0.25" bottom="0.80625" header="0.25" footer="0.25"/>
   <pageSetup paperSize="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;9 6/19/2022 9:46 PM &amp;C&amp;"Arial,Regular"&amp;9 *Data provided should be considered CONFIDENTIAL and PROPRIETARY* 
+    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;9 6/21/2022 12:43 AM &amp;C&amp;"Arial,Regular"&amp;9 *Data provided should be considered CONFIDENTIAL and PROPRIETARY* 
 &amp;"-,Regular"©2011-2022 MNX Global Logistics. All rights reserved. 
-&amp;"-,Regular"Print User : automation &amp;R&amp;"Arial,Regular"&amp;9Page </oddFooter>
+&amp;"-,Regular"Print User : automation &amp;R&amp;"Arial,Regular"&amp;9Page</oddFooter>
   </headerFooter>
   <drawing r:id="rId7"/>
 </worksheet>
